--- a/biology/Virologie/Citrus_leaf_blotch_virus/Citrus_leaf_blotch_virus.xlsx
+++ b/biology/Virologie/Citrus_leaf_blotch_virus/Citrus_leaf_blotch_virus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Citrus leaf blotch virus est une espèce de virus du genre Citrivirus (famille des Betaflexiviridae), dont c'est l'unique espèce acceptée par l'ICTV (genre monotypique).
 Ce sont des virus à ARN simple brin à polarité positive, rattachés au groupe IV de la classification Baltimore. Les virions sont en forme de filaments flexueux.
@@ -513,10 +525,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virions sont des particules non enveloppées, filamenteuses, flexueuses, à symétrie hélicoïdale, mesurant 960 nm et plus de long et 12 nm de diamètre[3].
-Le génome est constitué d'une molécule d'ARN monocaténaire (à simple brin) de sens positif, linéaire, d'environ 8,7 kb. L'extrémité 5' est coiffée et l'extrémité 3' est polyadénylée. Cet ARN code trois protéines[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virions sont des particules non enveloppées, filamenteuses, flexueuses, à symétrie hélicoïdale, mesurant 960 nm et plus de long et 12 nm de diamètre.
+Le génome est constitué d'une molécule d'ARN monocaténaire (à simple brin) de sens positif, linéaire, d'environ 8,7 kb. L'extrémité 5' est coiffée et l'extrémité 3' est polyadénylée. Cet ARN code trois protéines
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (16 février 2021)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (16 février 2021) :
 Citrus leaf blotch virus
 non-classés
 Avocado citrivirus 1
